--- a/data/trans_dic/P44A$endoscopia-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2611812356771134</v>
+        <v>0.2686249966006693</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2463932473516537</v>
+        <v>0.2471911411718726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3599761720359618</v>
+        <v>0.3656128836881826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4023412725874244</v>
+        <v>0.4061848784215928</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3161514877616953</v>
+        <v>0.2955611105897009</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.340225282433774</v>
+        <v>0.3451550503416572</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.413558117310581</v>
+        <v>0.3968808642875912</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3278786630679875</v>
+        <v>0.3312552328675001</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3747398154380484</v>
+        <v>0.3746587490605156</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7912703459294251</v>
+        <v>0.7864737419238648</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5914235960169132</v>
+        <v>0.604195047827274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5454951539438732</v>
+        <v>0.5439201209575883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8721293421667674</v>
+        <v>0.8738517461557956</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.734463721953818</v>
+        <v>0.7272503031757485</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4816708310899422</v>
+        <v>0.4808414264651318</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7662495439809084</v>
+        <v>0.764154842610574</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6209401152385265</v>
+        <v>0.6078121197837699</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4902631902717857</v>
+        <v>0.4926505631935753</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.4952474647116482</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3912334787684131</v>
+        <v>0.3912334787684132</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.6558772602652999</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4043141691071213</v>
+        <v>0.3914863799908546</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4334763563944425</v>
+        <v>0.4185819451886572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3857928859572821</v>
+        <v>0.3855665880853459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4843071066034444</v>
+        <v>0.4814270598399318</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3060873320109273</v>
+        <v>0.315687096422695</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3286428232280889</v>
+        <v>0.3299946805922337</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5290741359912812</v>
+        <v>0.5119151958617222</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4276480869492752</v>
+        <v>0.4215412557323012</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3807972419939383</v>
+        <v>0.3757345299659715</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8159476108166701</v>
+        <v>0.835939862396315</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.753337350397573</v>
+        <v>0.730899105675389</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5441563790898069</v>
+        <v>0.5317991170207467</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8163978230143836</v>
+        <v>0.8247794668012871</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6858807148608732</v>
+        <v>0.6947784131908465</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4573886623817066</v>
+        <v>0.456183314068037</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7715944504804882</v>
+        <v>0.7679986892354315</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6617952792666226</v>
+        <v>0.6855617558626754</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4812224689320585</v>
+        <v>0.4743969986922638</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.547553504648759</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.354500928682765</v>
+        <v>0.3545009286827649</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6455559425182081</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4325494539618762</v>
+        <v>0.4523812780121155</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.399886093892858</v>
+        <v>0.403518090926423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.336221902272292</v>
+        <v>0.3295246043765362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3997112352327955</v>
+        <v>0.3849413231124393</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3276632771476358</v>
+        <v>0.3184130882265448</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2774469526178946</v>
+        <v>0.2693690349561597</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.518150971970424</v>
+        <v>0.4819315269744494</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4264787089092115</v>
+        <v>0.42618575016966</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3258064786451431</v>
+        <v>0.3338527473857989</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8350131007494429</v>
+        <v>0.8413444449296985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7597988532817238</v>
+        <v>0.7744318682509527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5011668403107251</v>
+        <v>0.5005619658917584</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7855727608163366</v>
+        <v>0.7859992298089473</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8195262771299908</v>
+        <v>0.7744285197147444</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4315534147344605</v>
+        <v>0.4369955695866942</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7838445671789932</v>
+        <v>0.78599980318384</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7101949126864812</v>
+        <v>0.7095562770603484</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4534403032333099</v>
+        <v>0.4541150611361459</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4222287179668492</v>
+        <v>0.4020052988762905</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3401688480989344</v>
+        <v>0.3498860076838399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3604543410685416</v>
+        <v>0.3516054646951995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3258967312439257</v>
+        <v>0.3181747811027276</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4644951671551547</v>
+        <v>0.4587007067701476</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2720520810020766</v>
+        <v>0.2743155829073076</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4363817544130154</v>
+        <v>0.4413441442938377</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4416740210934705</v>
+        <v>0.4506192781408608</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3315615384867109</v>
+        <v>0.3270019164891083</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7545430028768122</v>
+        <v>0.7481950939208905</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.606618506731336</v>
+        <v>0.6254610658324343</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4804447676818952</v>
+        <v>0.4711993410808807</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.734553500183484</v>
+        <v>0.7172700847331671</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8153396282873173</v>
+        <v>0.7990319978182479</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3802480283930205</v>
+        <v>0.3772895237246446</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6973877591495954</v>
+        <v>0.6871650697053509</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6547403057594305</v>
+        <v>0.6565211445419684</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4087829812604707</v>
+        <v>0.4063733357151915</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.434252118432943</v>
+        <v>0.4436016590888513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3945444742094213</v>
+        <v>0.3961772401011128</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5072840622761006</v>
+        <v>0.5280863229691877</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4577022590716825</v>
+        <v>0.4552417301709759</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3303772610531127</v>
+        <v>0.3305191409810497</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.550433936125643</v>
+        <v>0.5437987943811161</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4741864724804266</v>
+        <v>0.4785434536724951</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3748171074129124</v>
+        <v>0.3764173434622524</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.592952418997872</v>
+        <v>0.5982211959955898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4698015393320824</v>
+        <v>0.4738341152853153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7170285641097613</v>
+        <v>0.722748308415596</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6587974738730985</v>
+        <v>0.6550825714658608</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3980833799104601</v>
+        <v>0.3933575329040588</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6833501931408523</v>
+        <v>0.6829659587101463</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6025356556263511</v>
+        <v>0.5968423588087639</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4242581768479508</v>
+        <v>0.4256363689547534</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3970</v>
+        <v>4083</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7611</v>
+        <v>7635</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>36296</v>
+        <v>36864</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6116</v>
+        <v>6174</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8082</v>
+        <v>7555</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>36027</v>
+        <v>36549</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12573</v>
+        <v>12066</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18509</v>
+        <v>18700</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>77466</v>
+        <v>77449</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12028</v>
+        <v>11955</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18268</v>
+        <v>18663</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55001</v>
+        <v>54842</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13256</v>
+        <v>13283</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18775</v>
+        <v>18591</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>51005</v>
+        <v>50917</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23295</v>
+        <v>23231</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>35053</v>
+        <v>34312</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>101347</v>
+        <v>101840</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10666</v>
+        <v>10327</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17124</v>
+        <v>16536</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>59401</v>
+        <v>59366</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17614</v>
+        <v>17509</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10307</v>
+        <v>10631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>46119</v>
+        <v>46309</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>33199</v>
+        <v>32122</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>31295</v>
+        <v>30848</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>112070</v>
+        <v>110580</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21525</v>
+        <v>22052</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29761</v>
+        <v>28874</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>83784</v>
+        <v>81881</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29692</v>
+        <v>29996</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23097</v>
+        <v>23397</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>64187</v>
+        <v>64018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>48417</v>
+        <v>48191</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48430</v>
+        <v>50169</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>141625</v>
+        <v>139616</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11400</v>
+        <v>11923</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12312</v>
+        <v>12424</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39698</v>
+        <v>38907</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10560</v>
+        <v>10170</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6652</v>
+        <v>6464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>23607</v>
+        <v>22920</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27345</v>
+        <v>25434</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21789</v>
+        <v>21774</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>66190</v>
+        <v>67825</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22007</v>
+        <v>22174</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23393</v>
+        <v>23844</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>59173</v>
+        <v>59102</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20755</v>
+        <v>20766</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16638</v>
+        <v>15722</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36719</v>
+        <v>37182</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41367</v>
+        <v>41481</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36285</v>
+        <v>36252</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>92120</v>
+        <v>92257</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17493</v>
+        <v>16655</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19901</v>
+        <v>20469</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71371</v>
+        <v>69619</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9439</v>
+        <v>9215</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16994</v>
+        <v>16782</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>53583</v>
+        <v>54028</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30718</v>
+        <v>31068</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>41999</v>
+        <v>42849</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>130953</v>
+        <v>129152</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31261</v>
+        <v>30998</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35489</v>
+        <v>36591</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>95129</v>
+        <v>93298</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21274</v>
+        <v>20774</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29831</v>
+        <v>29234</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>74893</v>
+        <v>74310</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>49091</v>
+        <v>48372</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>62259</v>
+        <v>62429</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>161452</v>
+        <v>160500</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69344</v>
+        <v>70837</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>225234</v>
+        <v>226166</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>54255</v>
+        <v>56479</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>53151</v>
+        <v>52865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>174527</v>
+        <v>174602</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>119069</v>
+        <v>117633</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>130786</v>
+        <v>131988</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>411975</v>
+        <v>413734</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>94686</v>
+        <v>95528</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>268196</v>
+        <v>270498</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>76687</v>
+        <v>77299</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>76504</v>
+        <v>76072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>210294</v>
+        <v>207797</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>147821</v>
+        <v>147738</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>166187</v>
+        <v>164616</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>466318</v>
+        <v>467833</v>
       </c>
     </row>
     <row r="24">
